--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Final_Parameters/Tech Mahindra Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Final_Parameters/Tech Mahindra Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="219">
   <si>
     <t>Balance Sheet of Tech Mahindra(in Rs. Cr.)</t>
   </si>
@@ -362,6 +362,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -540,6 +543,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -4101,13 +4107,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -4168,19 +4174,22 @@
       <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>109</v>
@@ -4189,51 +4198,54 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J2" t="s">
         <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="O2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>182</v>
+      </c>
+      <c r="U2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>4215.78</v>
@@ -4266,36 +4278,39 @@
         <v>788.1799999999999</v>
       </c>
       <c r="L3">
+        <v>120</v>
+      </c>
+      <c r="M3">
         <v>908.1799999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>210.13</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>698.05</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>924.65</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>233.15</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>34.64</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>33.8</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>39.81</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>38.84</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>5034.81</v>
@@ -4327,37 +4342,37 @@
       <c r="K4">
         <v>876.67</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>876.67</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>191.32</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>685.35</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>710.77</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>239.98</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>29.74</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>28.92</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>29.74</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>28.92</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>4803.6</v>
@@ -4389,37 +4404,37 @@
       <c r="K5">
         <v>795.14</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>795.14</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>205.67</v>
-      </c>
-      <c r="N5">
-        <v>589.47</v>
       </c>
       <c r="O5">
         <v>589.47</v>
       </c>
       <c r="P5">
+        <v>589.47</v>
+      </c>
+      <c r="Q5">
         <v>235.45</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>25.16</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>24.42</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>25.16</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>24.42</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>4512.41</v>
@@ -4451,37 +4466,37 @@
       <c r="K6">
         <v>706.12</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>706.12</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>179.11</v>
-      </c>
-      <c r="N6">
-        <v>527.01</v>
       </c>
       <c r="O6">
         <v>527.01</v>
       </c>
       <c r="P6">
+        <v>527.01</v>
+      </c>
+      <c r="Q6">
         <v>234.39</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>22.55</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>21.85</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>22.55</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>21.85</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>4370.24</v>
@@ -4513,37 +4528,37 @@
       <c r="K7">
         <v>664.1900000000001</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>664.1900000000001</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>140.85</v>
-      </c>
-      <c r="N7">
-        <v>523.34</v>
       </c>
       <c r="O7">
         <v>523.34</v>
       </c>
       <c r="P7">
+        <v>523.34</v>
+      </c>
+      <c r="Q7">
         <v>233.47</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>22.51</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>21.91</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>22.51</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>21.91</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>5226.74</v>
@@ -4575,37 +4590,37 @@
       <c r="K8">
         <v>810.59</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>810.59</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>187.16</v>
-      </c>
-      <c r="N8">
-        <v>623.4299999999999</v>
       </c>
       <c r="O8">
         <v>623.4299999999999</v>
       </c>
       <c r="P8">
+        <v>623.4299999999999</v>
+      </c>
+      <c r="Q8">
         <v>483.04</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6.48</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>6.34</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>6.48</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>6.34</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>5259.91</v>
@@ -4637,37 +4652,37 @@
       <c r="K9">
         <v>1213.22</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1213.22</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>230.22</v>
-      </c>
-      <c r="N9">
-        <v>983</v>
       </c>
       <c r="O9">
         <v>983</v>
       </c>
       <c r="P9">
+        <v>983</v>
+      </c>
+      <c r="Q9">
         <v>480.77</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>10.23</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>10</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>10.23</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>5016.31</v>
@@ -4699,37 +4714,37 @@
       <c r="K10">
         <v>968.71</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>968.71</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>165.61</v>
-      </c>
-      <c r="N10">
-        <v>803.1</v>
       </c>
       <c r="O10">
         <v>803.1</v>
       </c>
       <c r="P10">
+        <v>803.1</v>
+      </c>
+      <c r="Q10">
         <v>479.99</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>8.359999999999999</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>8.17</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>8.359999999999999</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8.17</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>4707.15</v>
@@ -4762,36 +4777,39 @@
         <v>454.86</v>
       </c>
       <c r="L11">
+        <v>61.27</v>
+      </c>
+      <c r="M11">
         <v>516.13</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>87.13</v>
-      </c>
-      <c r="N11">
-        <v>429</v>
       </c>
       <c r="O11">
         <v>429</v>
       </c>
       <c r="P11">
+        <v>429</v>
+      </c>
+      <c r="Q11">
         <v>480.39</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3.84</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3.74</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3.84</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3.74</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12">
         <v>5466.81</v>
@@ -4823,37 +4841,37 @@
       <c r="K12">
         <v>883.8</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>883.8</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>120.53</v>
-      </c>
-      <c r="N12">
-        <v>763.27</v>
       </c>
       <c r="O12">
         <v>763.27</v>
       </c>
       <c r="P12">
+        <v>763.27</v>
+      </c>
+      <c r="Q12">
         <v>483.55</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>7.92</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>7.76</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>7.92</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>7.76</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>5912.86</v>
@@ -4885,37 +4903,37 @@
       <c r="K13">
         <v>1024.98</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1024.98</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>173.09</v>
-      </c>
-      <c r="N13">
-        <v>851.89</v>
       </c>
       <c r="O13">
         <v>851.89</v>
       </c>
       <c r="P13">
+        <v>851.89</v>
+      </c>
+      <c r="Q13">
         <v>486.26</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>8.779999999999999</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>8.65</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>8.779999999999999</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>8.65</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>5682.19</v>
@@ -4947,37 +4965,37 @@
       <c r="K14">
         <v>1132.65</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1132.65</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>260.44</v>
-      </c>
-      <c r="N14">
-        <v>872.21</v>
       </c>
       <c r="O14">
         <v>872.21</v>
       </c>
       <c r="P14">
+        <v>872.21</v>
+      </c>
+      <c r="Q14">
         <v>485.68</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8.99</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>8.859999999999999</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>8.99</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>8.859999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>5646.76</v>
@@ -5009,37 +5027,37 @@
       <c r="K15">
         <v>950.01</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>950.01</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>212.53</v>
-      </c>
-      <c r="N15">
-        <v>737.48</v>
       </c>
       <c r="O15">
         <v>737.48</v>
       </c>
       <c r="P15">
+        <v>737.48</v>
+      </c>
+      <c r="Q15">
         <v>485.26</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>7.61</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>7.49</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>7.61</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>7.49</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <v>5753.54</v>
@@ -5071,37 +5089,37 @@
       <c r="K16">
         <v>1006.72</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1006.72</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>211.34</v>
-      </c>
-      <c r="N16">
-        <v>795.38</v>
       </c>
       <c r="O16">
         <v>795.38</v>
       </c>
       <c r="P16">
+        <v>795.38</v>
+      </c>
+      <c r="Q16">
         <v>487.51</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>8.17</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>8.07</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>8.17</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>8.07</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>5923.58</v>
@@ -5133,37 +5151,37 @@
       <c r="K17">
         <v>771.08</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>771.08</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>185.34</v>
-      </c>
-      <c r="N17">
-        <v>585.74</v>
       </c>
       <c r="O17">
         <v>585.74</v>
       </c>
       <c r="P17">
+        <v>585.74</v>
+      </c>
+      <c r="Q17">
         <v>486.77</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>6.03</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>5.95</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>6.03</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5.95</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>5967.71</v>
@@ -5195,37 +5213,37 @@
       <c r="K18">
         <v>988.24</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>988.24</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>150</v>
-      </c>
-      <c r="N18">
-        <v>838.24</v>
       </c>
       <c r="O18">
         <v>838.24</v>
       </c>
       <c r="P18">
+        <v>838.24</v>
+      </c>
+      <c r="Q18">
         <v>489.48</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>8.59</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>8.51</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>8.59</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>8.51</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>5919.37</v>
@@ -5257,37 +5275,37 @@
       <c r="K19">
         <v>1611.28</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1611.28</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>232.87</v>
-      </c>
-      <c r="N19">
-        <v>1378.41</v>
       </c>
       <c r="O19">
         <v>1378.41</v>
       </c>
       <c r="P19">
+        <v>1378.41</v>
+      </c>
+      <c r="Q19">
         <v>487.97</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>14.14</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>13.99</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>14.14</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>13.99</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>6870.86</v>
@@ -5319,37 +5337,37 @@
       <c r="K20">
         <v>1646.27</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1646.27</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>309.2</v>
-      </c>
-      <c r="N20">
-        <v>1337.07</v>
       </c>
       <c r="O20">
         <v>1337.07</v>
       </c>
       <c r="P20">
+        <v>1337.07</v>
+      </c>
+      <c r="Q20">
         <v>490.22</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>13.59</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>13.53</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>13.59</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>13.53</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>6286.85</v>
@@ -5381,37 +5399,37 @@
       <c r="K21">
         <v>1110.82</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1110.82</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>194.6</v>
-      </c>
-      <c r="N21">
-        <v>916.22</v>
       </c>
       <c r="O21">
         <v>916.22</v>
       </c>
       <c r="P21">
+        <v>916.22</v>
+      </c>
+      <c r="Q21">
         <v>489.98</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>9.32</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>9.279999999999999</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>9.32</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>9.279999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>6020.57</v>
@@ -5443,37 +5461,37 @@
       <c r="K22">
         <v>1300.26</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1300.26</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>313.02</v>
-      </c>
-      <c r="N22">
-        <v>987.24</v>
       </c>
       <c r="O22">
         <v>987.24</v>
       </c>
       <c r="P22">
+        <v>987.24</v>
+      </c>
+      <c r="Q22">
         <v>489.69</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>10.08</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>10.01</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>10.08</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>10.01</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23">
         <v>6989.7</v>
@@ -5505,37 +5523,37 @@
       <c r="K23">
         <v>1384.8</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1384.8</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>231.9</v>
-      </c>
-      <c r="N23">
-        <v>1152.9</v>
       </c>
       <c r="O23">
         <v>1152.9</v>
       </c>
       <c r="P23">
+        <v>1152.9</v>
+      </c>
+      <c r="Q23">
         <v>490.5</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>11.72</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>11.64</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>11.72</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>11.64</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <v>7699.1</v>
@@ -5567,37 +5585,37 @@
       <c r="K24">
         <v>1249.5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1249.5</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>326.3</v>
-      </c>
-      <c r="N24">
-        <v>923.2</v>
       </c>
       <c r="O24">
         <v>923.2</v>
       </c>
       <c r="P24">
+        <v>923.2</v>
+      </c>
+      <c r="Q24">
         <v>482.7</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>9.550000000000001</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>9.48</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>9.550000000000001</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>9.48</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>7095.7</v>
@@ -5629,37 +5647,37 @@
       <c r="K25">
         <v>1485.7</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1485.7</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>88.90000000000001</v>
-      </c>
-      <c r="N25">
-        <v>1396.8</v>
       </c>
       <c r="O25">
         <v>1396.8</v>
       </c>
       <c r="P25">
+        <v>1396.8</v>
+      </c>
+      <c r="Q25">
         <v>482.4</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>14.44</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>14.35</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>14.44</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>14.35</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>6858.7</v>
@@ -5691,37 +5709,37 @@
       <c r="K26">
         <v>1079.5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1079.5</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>256.8</v>
-      </c>
-      <c r="N26">
-        <v>822.7</v>
       </c>
       <c r="O26">
         <v>822.7</v>
       </c>
       <c r="P26">
+        <v>822.7</v>
+      </c>
+      <c r="Q26">
         <v>482.2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>8.5</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>8.43</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>8.5</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>8.43</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27">
         <v>7064.6</v>
@@ -5753,37 +5771,37 @@
       <c r="K27">
         <v>1291.5</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1291.5</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>310.4</v>
-      </c>
-      <c r="N27">
-        <v>981.1</v>
       </c>
       <c r="O27">
         <v>981.1</v>
       </c>
       <c r="P27">
+        <v>981.1</v>
+      </c>
+      <c r="Q27">
         <v>491.7</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>9.98</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>9.84</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>9.98</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>9.84</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28">
         <v>7565</v>
@@ -5815,37 +5833,37 @@
       <c r="K28">
         <v>1639.8</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1639.8</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>384.2</v>
-      </c>
-      <c r="N28">
-        <v>1255.6</v>
       </c>
       <c r="O28">
         <v>1255.6</v>
       </c>
       <c r="P28">
+        <v>1255.6</v>
+      </c>
+      <c r="Q28">
         <v>483.7</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>12.97</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>12.88</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>12.97</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>12.88</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29">
         <v>7404.4</v>
@@ -5877,37 +5895,37 @@
       <c r="K29">
         <v>1257.6</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1257.6</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>296.1</v>
-      </c>
-      <c r="N29">
-        <v>961.5</v>
       </c>
       <c r="O29">
         <v>961.5</v>
       </c>
       <c r="P29">
+        <v>961.5</v>
+      </c>
+      <c r="Q29">
         <v>483.3</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>9.93</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>9.880000000000001</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>9.93</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>9.880000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30">
         <v>7164.7</v>
@@ -5939,37 +5957,37 @@
       <c r="K30">
         <v>1101.9</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1101.9</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>247.7</v>
-      </c>
-      <c r="N30">
-        <v>854.2</v>
       </c>
       <c r="O30">
         <v>854.2</v>
       </c>
       <c r="P30">
+        <v>854.2</v>
+      </c>
+      <c r="Q30">
         <v>483.1</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>8.83</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>8.779999999999999</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>8.83</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>8.779999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B31">
         <v>7571.9</v>
@@ -6001,37 +6019,37 @@
       <c r="K31">
         <v>1517.5</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1517.5</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>125.7</v>
-      </c>
-      <c r="N31">
-        <v>1391.8</v>
       </c>
       <c r="O31">
         <v>1391.8</v>
       </c>
       <c r="P31">
+        <v>1391.8</v>
+      </c>
+      <c r="Q31">
         <v>482.9</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>14.39</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>14.29</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>14.39</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>14.29</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32">
         <v>7506.8</v>
@@ -6063,37 +6081,37 @@
       <c r="K32">
         <v>1527.3</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1527.3</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>359.5</v>
-      </c>
-      <c r="N32">
-        <v>1167.8</v>
       </c>
       <c r="O32">
         <v>1167.8</v>
       </c>
       <c r="P32">
+        <v>1167.8</v>
+      </c>
+      <c r="Q32">
         <v>484.1</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>12.06</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>11.96</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>12.06</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>11.96</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33">
         <v>9010.799999999999</v>
@@ -6125,37 +6143,37 @@
       <c r="K33">
         <v>1763</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1763</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>433.5</v>
-      </c>
-      <c r="N33">
-        <v>1329.5</v>
       </c>
       <c r="O33">
         <v>1329.5</v>
       </c>
       <c r="P33">
+        <v>1329.5</v>
+      </c>
+      <c r="Q33">
         <v>485.3</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>13.67</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>13.57</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>13.67</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>13.57</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34">
         <v>8464.870000000001</v>
@@ -6187,37 +6205,37 @@
       <c r="K34">
         <v>2004.3</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2004.3</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>444.79</v>
-      </c>
-      <c r="N34">
-        <v>1559.51</v>
       </c>
       <c r="O34">
         <v>1559.51</v>
       </c>
       <c r="P34">
+        <v>1559.51</v>
+      </c>
+      <c r="Q34">
         <v>484.9</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>16.05</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>15.94</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>16.05</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>15.94</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B35">
         <v>7931.5</v>
@@ -6249,37 +6267,37 @@
       <c r="K35">
         <v>1326.1</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1326.1</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>339.9</v>
-      </c>
-      <c r="N35">
-        <v>986.2</v>
       </c>
       <c r="O35">
         <v>986.2</v>
       </c>
       <c r="P35">
+        <v>986.2</v>
+      </c>
+      <c r="Q35">
         <v>484.5</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>10.16</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>10.09</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>10.16</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>10.09</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36">
         <v>9965.1</v>
@@ -6311,37 +6329,37 @@
       <c r="K36">
         <v>1145.8</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1145.8</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>263.6</v>
-      </c>
-      <c r="N36">
-        <v>882.2</v>
       </c>
       <c r="O36">
         <v>882.2</v>
       </c>
       <c r="P36">
+        <v>882.2</v>
+      </c>
+      <c r="Q36">
         <v>486.3</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>9.050000000000001</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>9</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>9.050000000000001</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37">
         <v>9318.9</v>
@@ -6373,37 +6391,37 @@
       <c r="K37">
         <v>1191.3</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1191.3</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>153.3</v>
-      </c>
-      <c r="N37">
-        <v>1038</v>
       </c>
       <c r="O37">
         <v>1038</v>
       </c>
       <c r="P37">
+        <v>1038</v>
+      </c>
+      <c r="Q37">
         <v>485.9</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>10.67</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>10.59</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>10.67</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>10.59</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B38">
         <v>10987.6</v>
@@ -6435,37 +6453,37 @@
       <c r="K38">
         <v>1509.8</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1509.8</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>305.4</v>
-      </c>
-      <c r="N38">
-        <v>1204.4</v>
       </c>
       <c r="O38">
         <v>1204.4</v>
       </c>
       <c r="P38">
+        <v>1204.4</v>
+      </c>
+      <c r="Q38">
         <v>486.9</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>12.34</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>12.29</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>12.34</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>12.29</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39">
         <v>10479.8</v>
@@ -6497,37 +6515,37 @@
       <c r="K39">
         <v>1496.2</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1496.2</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>334.3</v>
-      </c>
-      <c r="N39">
-        <v>1161.9</v>
       </c>
       <c r="O39">
         <v>1161.9</v>
       </c>
       <c r="P39">
+        <v>1161.9</v>
+      </c>
+      <c r="Q39">
         <v>486.6</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>11.91</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>11.87</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>11.91</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>11.87</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40">
         <v>10439.7</v>
@@ -6559,37 +6577,37 @@
       <c r="K40">
         <v>586.9</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>586.9</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>31.1</v>
-      </c>
-      <c r="N40">
-        <v>555.8</v>
       </c>
       <c r="O40">
         <v>555.8</v>
       </c>
       <c r="P40">
+        <v>555.8</v>
+      </c>
+      <c r="Q40">
         <v>487.8</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>5.68</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>5.67</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>5.68</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>5.67</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41">
         <v>10697.2</v>
@@ -6621,37 +6639,37 @@
       <c r="K41">
         <v>728.6</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>728.6</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>169.1</v>
-      </c>
-      <c r="N41">
-        <v>559.5</v>
       </c>
       <c r="O41">
         <v>559.5</v>
       </c>
       <c r="P41">
+        <v>559.5</v>
+      </c>
+      <c r="Q41">
         <v>487.4</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>5.72</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>5.71</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>5.72</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>5.71</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42">
         <v>10938.5</v>
@@ -6683,37 +6701,37 @@
       <c r="K42">
         <v>864</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>864</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>187.3</v>
-      </c>
-      <c r="N42">
-        <v>676.7</v>
       </c>
       <c r="O42">
         <v>676.7</v>
       </c>
       <c r="P42">
+        <v>676.7</v>
+      </c>
+      <c r="Q42">
         <v>487.1</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>6.93</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>6.9</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>6.93</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>6.9</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43">
         <v>10551.4</v>
@@ -6745,37 +6763,37 @@
       <c r="K43">
         <v>541.8</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>541.8</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>55.9</v>
-      </c>
-      <c r="N43">
-        <v>485.9</v>
       </c>
       <c r="O43">
         <v>485.9</v>
       </c>
       <c r="P43">
+        <v>485.9</v>
+      </c>
+      <c r="Q43">
         <v>488.1</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>4.97</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>4.96</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>4.97</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>4.96</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44">
         <v>11176.2</v>
@@ -6807,37 +6825,37 @@
       <c r="K44">
         <v>1075.2</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>1075.2</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>216.9</v>
-      </c>
-      <c r="N44">
-        <v>858.3</v>
       </c>
       <c r="O44">
         <v>858.3</v>
       </c>
       <c r="P44">
+        <v>858.3</v>
+      </c>
+      <c r="Q44">
         <v>489.4</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>8.76</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>8.75</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>8.76</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>8.75</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>10938.6</v>
@@ -6869,37 +6887,37 @@
       <c r="K45">
         <v>1640.3</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1640.3</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>346.5</v>
-      </c>
-      <c r="N45">
-        <v>1293.8</v>
       </c>
       <c r="O45">
         <v>1293.8</v>
       </c>
       <c r="P45">
+        <v>1293.8</v>
+      </c>
+      <c r="Q45">
         <v>489.2</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>13.21</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>13.19</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>13.21</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>13.19</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B46">
         <v>10629.6</v>
@@ -6931,37 +6949,37 @@
       <c r="K46">
         <v>822.3</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>822.3</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>197.5</v>
-      </c>
-      <c r="N46">
-        <v>624.8</v>
       </c>
       <c r="O46">
         <v>624.8</v>
       </c>
       <c r="P46">
+        <v>624.8</v>
+      </c>
+      <c r="Q46">
         <v>489</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>6.38</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>6.37</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>6.38</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>6.37</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47">
         <v>10411</v>
@@ -6993,31 +7011,31 @@
       <c r="K47">
         <v>707.4</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>707.4</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>180</v>
-      </c>
-      <c r="N47">
-        <v>527.4</v>
       </c>
       <c r="O47">
         <v>527.4</v>
       </c>
       <c r="P47">
+        <v>527.4</v>
+      </c>
+      <c r="Q47">
         <v>488.4</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>5.39</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>5.38</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>5.39</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>5.38</v>
       </c>
     </row>
@@ -7036,114 +7054,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:18">
